--- a/data/cpn_gestantes_resumen.xlsx
+++ b/data/cpn_gestantes_resumen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CESAR LOPEZ\Desktop\GOBERNACION 2025\QUINTO INFORME\CARPETA 2\ACTIVIDAD No 6\tablero indicadores ssr cauca\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CESAR LOPEZ\Desktop\tablero-indicadores-ssr-cauca\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9C3B23-DBFE-4044-B600-A53B43CA821C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570590B2-3147-4E71-899B-A65622761D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1F075172-DC8D-4D48-AEB3-A459EFB5418C}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1F075172-DC8D-4D48-AEB3-A459EFB5418C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Indicador</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
   </si>
 </sst>
 </file>
@@ -460,18 +463,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1F544A-B55A-4662-B6B3-86CF1F5AC66F}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,13 +491,16 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -511,15 +517,18 @@
         <v>6198</v>
       </c>
       <c r="F2" s="2">
+        <v>7254</v>
+      </c>
+      <c r="G2" s="2">
         <f>E2-D2</f>
         <v>1306</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <f>(E2-D2)/D2</f>
         <v>0.26696647587898609</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -536,15 +545,18 @@
         <v>1005</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F6" si="0">E3-D3</f>
+        <v>1354</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G6" si="0">E3-D3</f>
         <v>162</v>
       </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G6" si="1">(E3-D3)/D3</f>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H6" si="1">(E3-D3)/D3</f>
         <v>0.19217081850533807</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -561,15 +573,18 @@
         <v>6198</v>
       </c>
       <c r="F4" s="2">
+        <v>7254</v>
+      </c>
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>1306</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <f t="shared" si="1"/>
         <v>0.26696647587898609</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -586,15 +601,18 @@
         <v>4873</v>
       </c>
       <c r="F5" s="2">
+        <v>5478</v>
+      </c>
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>1342</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <f t="shared" si="1"/>
         <v>0.38006230529595014</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -611,10 +629,13 @@
         <v>772</v>
       </c>
       <c r="F6" s="2">
+        <v>725</v>
+      </c>
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>341</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <f t="shared" si="1"/>
         <v>0.79118329466357307</v>
       </c>

--- a/data/cpn_gestantes_resumen.xlsx
+++ b/data/cpn_gestantes_resumen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CESAR LOPEZ\Desktop\tablero-indicadores-ssr-cauca\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570590B2-3147-4E71-899B-A65622761D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC52679A-F003-4CD9-B5A9-A7AFA89CB43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1F075172-DC8D-4D48-AEB3-A459EFB5418C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1F075172-DC8D-4D48-AEB3-A459EFB5418C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Indicador</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Gestantes con CPN Temprano</t>
   </si>
   <si>
-    <t>Gestantes con Alerta de Riesgo</t>
-  </si>
-  <si>
     <t>Julio</t>
   </si>
   <si>
@@ -75,6 +72,12 @@
   </si>
   <si>
     <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
   </si>
 </sst>
 </file>
@@ -463,18 +466,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1F544A-B55A-4662-B6B3-86CF1F5AC66F}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,30 +488,36 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>6466</v>
+        <v>6465</v>
       </c>
       <c r="C2" s="2">
-        <v>6273</v>
+        <v>6272</v>
       </c>
       <c r="D2" s="2">
         <v>4892</v>
@@ -517,54 +526,66 @@
         <v>6198</v>
       </c>
       <c r="F2" s="2">
-        <v>7254</v>
+        <v>4372</v>
       </c>
       <c r="G2" s="2">
-        <f>E2-D2</f>
-        <v>1306</v>
-      </c>
-      <c r="H2" s="3">
-        <f>(E2-D2)/D2</f>
-        <v>0.26696647587898609</v>
+        <v>6126</v>
+      </c>
+      <c r="H2" s="2">
+        <v>6102</v>
+      </c>
+      <c r="I2" s="2">
+        <f>H2-B2</f>
+        <v>-363</v>
+      </c>
+      <c r="J2" s="3">
+        <f>(H2-B2)/B2</f>
+        <v>-5.6148491879350351E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="C3" s="2">
-        <v>996</v>
+        <v>1149</v>
       </c>
       <c r="D3" s="2">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="E3" s="2">
         <v>1005</v>
       </c>
       <c r="F3" s="2">
-        <v>1354</v>
+        <v>606</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G6" si="0">E3-D3</f>
-        <v>162</v>
-      </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H6" si="1">(E3-D3)/D3</f>
-        <v>0.19217081850533807</v>
+        <v>993</v>
+      </c>
+      <c r="H3" s="2">
+        <v>959</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I5" si="0">H3-B3</f>
+        <v>-81</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J5" si="1">(H3-B3)/B3</f>
+        <v>-7.7884615384615385E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>6466</v>
+        <v>6460</v>
       </c>
       <c r="C4" s="2">
-        <v>6273</v>
+        <v>6272</v>
       </c>
       <c r="D4" s="2">
         <v>4892</v>
@@ -573,71 +594,55 @@
         <v>6198</v>
       </c>
       <c r="F4" s="2">
-        <v>7254</v>
+        <v>4366</v>
       </c>
       <c r="G4" s="2">
+        <v>6121</v>
+      </c>
+      <c r="H4" s="2">
+        <v>6090</v>
+      </c>
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>1306</v>
-      </c>
-      <c r="H4" s="3">
+        <v>-370</v>
+      </c>
+      <c r="J4" s="3">
         <f t="shared" si="1"/>
-        <v>0.26696647587898609</v>
+        <v>-5.7275541795665637E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>4573</v>
+        <v>3592</v>
       </c>
       <c r="C5" s="2">
-        <v>4674</v>
+        <v>3565</v>
       </c>
       <c r="D5" s="2">
-        <v>3531</v>
+        <v>2752</v>
       </c>
       <c r="E5" s="2">
-        <v>4873</v>
+        <v>3744</v>
       </c>
       <c r="F5" s="2">
-        <v>5478</v>
+        <v>2716</v>
       </c>
       <c r="G5" s="2">
+        <v>3705</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3794</v>
+      </c>
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>1342</v>
-      </c>
-      <c r="H5" s="3">
+        <v>202</v>
+      </c>
+      <c r="J5" s="3">
         <f t="shared" si="1"/>
-        <v>0.38006230529595014</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>721</v>
-      </c>
-      <c r="C6" s="2">
-        <v>674</v>
-      </c>
-      <c r="D6" s="2">
-        <v>431</v>
-      </c>
-      <c r="E6" s="2">
-        <v>772</v>
-      </c>
-      <c r="F6" s="2">
-        <v>725</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>341</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="1"/>
-        <v>0.79118329466357307</v>
+        <v>5.623608017817372E-2</v>
       </c>
     </row>
   </sheetData>
